--- a/500all/speech_level/speeches_CHRG-114hhrg95907.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95907.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412522</t>
   </si>
   <si>
-    <t>Juan Vargas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vargas. Thank you very much, Madam Chair. Again, I want to thank you for holding--I think that my microphone is having some feedback problems or issues here. There you go. I apologize for that.    Again, thank you, Madam Chair. I appreciate the opportunity to be here and thank you for holding this oversight hearing today and for giving the Smithsonian a chance to show off some of its treasures earlier this morning, as you were noting. So, again, thank you very much for that.    This is a period of rising expectations for the Smithsonian Institution. A new Secretary will arrive in a few weeks, and the Smithsonian African American museum will open in less than a year from now. And, by the way, it is magnificent. Every time I drive or walk by there I get very excited. It really is looking magnificent.    Also, an historic national campaign in raising a record amount of private funds for the Institution and a museum of American Latino within the Smithsonian has been recommended by a national commission that will be reviewed by our Committee this year.    A proposed national women's history museum is about to be studied by another commission, and the visitors' advanced levels at the Smithsonian museum are on the rise.    The value of the Smithsonian endowment is at a record high, and the cost of admission of the American people is still zero.    I commend Acting Secretary Horvath--again, thank you very much--for your ability to step in quickly and to assure the continuity during the period between Secretary Clough's departure and Dr. Skorton's transition out of Cornell University.    This is a busy season for our constituents who visit the Smithsonian during the warmer months, and we often hear from them how much they enjoyed the experience.    I have to say that I was able to go recently to the National Portrait Gallery and was very excited to see the Athenaeum, Gilbert Stuart's magnificent painting of George Washington, and also to see the Landsdowne. And my understanding is the Landsdowne is about to go in for some needed work.    But it was very exciting to see those two magnificent paintings there, although I believe the Athenaeum is shared with the Boston museum. I think it is half and half. I think that is the deal.    But, again, I welcome you here to this hearing. It is such a joy to have you here. We are very, very proud of your Institution and the work that all of you have done.    Thank you very much, Madam Chair. I yield back.    The Chairman. I thank the gentleman.    Do any other members wish to make an opening comment or statement? Okay.    At this time I would like to introduce our witness. Albert Horvath became the Acting Secretary of the Smithsonian on January the 1st of this year following the retirement of Secretary Wayne Clough. He will serve in this position until the end of this month.    We had an opportunity to have you in our office last week. You said it was a very fast-paced last several months, very eye-opening, and interesting. But, as was mentioned, David Skorton will take over as the 13th Secretary of the Smithsonian on July the 1st.    As Acting Secretary, Mr. Horvath oversees the thousands of staff members and multiple projects that are underway within the Smithsonian Institution.    Before becoming the Acting Secretary, he was the Under Secretary for Finance and Administration and Chief Financial Officer of the Smithsonian, where he managed administrative offices, including facilities and maintenance, human resources, security, and financial operations. We are happy to say that that is the position that he will be returning to as well following his tenure as Acting Secretary.    Before coming to the Smithsonian in 2011, his career spanned more 30 years in the administration at five different universities and the Mellon Bank. So we certainly thank the Acting Secretary for being with us today.    At this time we recognize you for your statement, sir.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Horvath</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Horvath. Thank you very much. Chairman Miller and members of the Committee, thank you for this opportunity to testify this morning.    In 1846, Congress established the Smithsonian as a public-private partnership dedicated to the increase and diffusion of knowledge. Roughly 60 percent of our annual funding comes from Federal appropriations, 40 percent from philanthropy and other sources.    The Federal commitment provides the critical foundation for all that we do and is helpful in attracting private support. We are grateful for the continued confidence of the administration, the Congress, and the American people.    I assure you that the confidence is more than justified. The state of the Smithsonian is strong. We are making great progress and will welcome our 13th Secretary on July 1, Dr. David Skorton, currently president of Cornell, who will push for even more progress.    Since January 1, I have been privileged to serve as Acting Secretary. Upon Dr. Skorton's arrival, I will return to my previous post as Under Secretary for Finance and Administration and Chief Financial Officer.    I will do so firmly convinced that the Smithsonian is more efficient and entrepreneurial than ever. It is also more effective in offering close-up authentic experiences of what it means to be an American.    For example, on May 8, I stood atop our American History Museum to witness the World War II flyover celebrating Victory in Europe Day. I am sure many of you saw the historic planes flying over the National Mall.    Our National Air and Space Museum director, General Jack Dailey, participated. The former Assistant Commandant of the Marine Corps was in the P-51 Mustang in the formation that executed the missing man maneuver.    The next day some of the participating planes were on display at our Air and Space Museum's Steven F. Udvar-Hazy Center for all to see. The Center also houses, among many treasures, the Space Shuttle Discovery, which flew over the National Mall 3 years ago.    Online, we offer a three-dimensional scan of the Wright Flyer that any teacher, student, or lifetime learner can download free of charge.    As I looked west that day, I saw our National Museum of African American History and Culture rising out of the ground. Museum curators have collected more than 33,000 artifacts, including the Spirit of Tuskegee airplane. The museum is targeted to open in the fall of 2016.    We continue to implement our 2010 strategic plan that focuses on our four grand challenges. We have an ambitious agenda. The first phase of the renovated west wing of our American History Museum reopens on July 1. The Smithsonian American Art Museum's Renwick Gallery reopens on the November 13 after significant revitalization.    We can offer so much to so many people because the Smithsonian is the largest museum and research complex in the world with passionate professionals and volunteers devoted to their work.    We have 19 museums and galleries, 20 libraries, 9 research centers, the National Zoo, and 201 affiliate museums in 45 states, Puerto Rico, and Panama. We are open 364 days a year and admission is free. We operate in more than 130 countries.    If you can't come to us, we are coming to you through digital technology. Our more than 200 Web sites attract 100 million unique visitors.    We have 6.6 million followers on Facebook and Twitter alone. Last year our museums and galleries had almost 27 million visits and another 4.5 million people visited our traveling exhibits in all 50 States.    Our collections total 138 million objects, including 127 million scientific specimens, 340,000 works of art, 2 million library volumes, more than 2,000 live animals, and much more. Some of those treasures you see on the table in front of you.    We protect and present some of the Nation's greatest treasures, everything from the Star-Spangled Banner to the Hope Diamond, the Landsdowne portrait of George Washington to the skeleton of T-Rex, Edison's light bulb to Nat Turner's Bible. We take stewardship of these treasures very seriously, as reported to this Committee 2 years ago.    Since that time, we have made many improvements and completed an in-depth study of collection space needs that will inform our long-term capital plan.    Our 500 scientists are making important discoveries, especially regarding biodiversity issues through our ForestGEO, or Global Earth Observatories, network. It is a worldwide partnership monitoring the health of 6 million trees in 24 countries.    Our new Tennenbaum Marine Observatories initiative, or MarineGEO, seeks to replicate that success and assess the health of coastal areas and the oceans.    We offer American, Asian, and African art. We deliver educational materials to students and teachers in all 50 States. More than 2,000 learning resources, all tied to State standards, are available online for free.    For 30 years our Smithsonian Science Education Center has been improving K through 12 education in our Nation's schools through its innovative STEM program.    We do have concerns about the age and upkeep of our 12 million square feet of facilities, particularly at our Air and Space Museum, our zoo, our Freer Gallery of Art, our Arts and Industries Building, The Castle, and other sites. We will need your continued support in those areas to ensure the vitality of these spaces, many of which are historic.    Our 6,400 dedicated employees and 5,500 generous volunteers are creative, resourceful, and dedicated to our mission. That is why for the fifth year in a row the Smithsonian was ranked as one of the best places to work in the Federal Government. All of us are honored to be part of this great American Institution.    As we face both exciting new opportunities and imposing challenges, we will carefully steward the critically important resources provided by the Federal Government.    Again, I thank you for this opportunity, and I look forward to your questions.</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Madam Chair.    And thank you for your service in such an important role. I have to say, last night, I hope everyone got to go to the Congressional Night at the National Portrait Gallery. It was an incredible location and very well done. So thanks to all that were involved in that.    Now, there is always concern on the upkeep of buildings and making sure that we don't defer maintenance. That happens sometimes just because the money is not there.    And I know we have a new museum that has been talked about that will open next year, a very exciting time. There are others that are being discussed.    But there is also a concern that, as we go forward and we build new museums, that we have the ability to maintain them and do the upkeep and maintenance. So this is going to be a major lift.    But, as far as families, the Air and Space Museum is one that everyone likes to go to. And it is very special because there is a plane there from my congressional district, from Meridian, Mississippi, the Key brothers' airplane called the ``Ole Miss,'' for which they set the record for longest time in the air, 27 days, back in 1935.    And their partner, mechanic, inventor, and friend, Mr. A.D. Hunter, invented the shutoff valve so you could safely transfer the fuel, which even today, with just some minor modifications, is still what is used today.    And you have got this single-engine plane that they stayed in for 27 days with a catwalk built around it because they had to climb out and service the engine during flight.    So during construction we are confident that will be fully displayed. But, anyway, that is another deal there. But it is true. Every exhibit has a great story. And so we are very thankful for that and those opportunities that are there.    How do you foresee going forward--and I know Chairman Miller discussed this. You are planning on keeping this open, at least in part, during those construction years. How many years will that Air and Space renovation take place?</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Chairman Miller. And I wish you well on your next endeavor, going to work for the Smithsonian, as you mentioned.    Please, sir, check her references.    Don't cut my mic, Judge Vargas.    First off, I want to say thank you, Mr. Acting Secretary. My twin boys, who are 14, going into the ninth grade, were part of a large high school group that was out just last week and enjoyed many of your facilities. Some of the feedback was that, obviously, besides hanging out with me, going to the Smithsonian was actually one of their favorite activities.    And it is something that we see many folks and families go through every day here. It is what you do on a regular basis. I think this Committee--hopefully, today you understand we truly appreciate what you do and what the many men and women who work at your facilities do on a regular basis to show what our Nation is all about. So thank you for that.    Education was a key point of your opening testimony. And I noticed you mentioned some of the STEM programs, that the Smithsonian works with school districts throughout this Nation, especially K through 12 education.    Can you actually go into a little further what you do at the Smithsonian to ensure that our students who may not be able to make it out here to Washington, D.C., or to other facilities in the Nation--how do they have access to your facilities? And how do your STEM programs work? And, also, how do teachers who may not be involved with them know how to contact you to get involved?</t>
   </si>
   <si>
@@ -173,9 +161,6 @@
   </si>
   <si>
     <t>412670</t>
-  </si>
-  <si>
-    <t>Mark Walker</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Ms. Chairman and Mr. Catcher.    I am fascinated by the Smithsonian over the years, something that predates even our Civil War by nearly 15 years.    I believe you have been there about 5 years. Is that correct?</t>
@@ -628,11 +613,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -652,13 +635,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -678,13 +659,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -704,13 +683,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -730,13 +707,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -756,13 +731,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -784,11 +757,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -808,13 +779,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -836,11 +805,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -860,13 +827,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -888,11 +853,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -912,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -940,11 +901,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -964,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -990,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1016,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1042,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1068,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1094,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1120,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1146,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1172,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1198,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1250,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1276,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1302,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
         <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1328,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1354,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1380,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1406,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1432,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1458,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1484,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1510,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1536,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1562,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1588,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1614,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1640,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1692,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1718,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1744,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1770,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1848,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1874,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1900,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1926,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95907.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95907.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>412522</t>
   </si>
   <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vargas. Thank you very much, Madam Chair. Again, I want to thank you for holding--I think that my microphone is having some feedback problems or issues here. There you go. I apologize for that.    Again, thank you, Madam Chair. I appreciate the opportunity to be here and thank you for holding this oversight hearing today and for giving the Smithsonian a chance to show off some of its treasures earlier this morning, as you were noting. So, again, thank you very much for that.    This is a period of rising expectations for the Smithsonian Institution. A new Secretary will arrive in a few weeks, and the Smithsonian African American museum will open in less than a year from now. And, by the way, it is magnificent. Every time I drive or walk by there I get very excited. It really is looking magnificent.    Also, an historic national campaign in raising a record amount of private funds for the Institution and a museum of American Latino within the Smithsonian has been recommended by a national commission that will be reviewed by our Committee this year.    A proposed national women's history museum is about to be studied by another commission, and the visitors' advanced levels at the Smithsonian museum are on the rise.    The value of the Smithsonian endowment is at a record high, and the cost of admission of the American people is still zero.    I commend Acting Secretary Horvath--again, thank you very much--for your ability to step in quickly and to assure the continuity during the period between Secretary Clough's departure and Dr. Skorton's transition out of Cornell University.    This is a busy season for our constituents who visit the Smithsonian during the warmer months, and we often hear from them how much they enjoyed the experience.    I have to say that I was able to go recently to the National Portrait Gallery and was very excited to see the Athenaeum, Gilbert Stuart's magnificent painting of George Washington, and also to see the Landsdowne. And my understanding is the Landsdowne is about to go in for some needed work.    But it was very exciting to see those two magnificent paintings there, although I believe the Athenaeum is shared with the Boston museum. I think it is half and half. I think that is the deal.    But, again, I welcome you here to this hearing. It is such a joy to have you here. We are very, very proud of your Institution and the work that all of you have done.    Thank you very much, Madam Chair. I yield back.    The Chairman. I thank the gentleman.    Do any other members wish to make an opening comment or statement? Okay.    At this time I would like to introduce our witness. Albert Horvath became the Acting Secretary of the Smithsonian on January the 1st of this year following the retirement of Secretary Wayne Clough. He will serve in this position until the end of this month.    We had an opportunity to have you in our office last week. You said it was a very fast-paced last several months, very eye-opening, and interesting. But, as was mentioned, David Skorton will take over as the 13th Secretary of the Smithsonian on July the 1st.    As Acting Secretary, Mr. Horvath oversees the thousands of staff members and multiple projects that are underway within the Smithsonian Institution.    Before becoming the Acting Secretary, he was the Under Secretary for Finance and Administration and Chief Financial Officer of the Smithsonian, where he managed administrative offices, including facilities and maintenance, human resources, security, and financial operations. We are happy to say that that is the position that he will be returning to as well following his tenure as Acting Secretary.    Before coming to the Smithsonian in 2011, his career spanned more 30 years in the administration at five different universities and the Mellon Bank. So we certainly thank the Acting Secretary for being with us today.    At this time we recognize you for your statement, sir.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Horvath</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Horvath. Thank you very much. Chairman Miller and members of the Committee, thank you for this opportunity to testify this morning.    In 1846, Congress established the Smithsonian as a public-private partnership dedicated to the increase and diffusion of knowledge. Roughly 60 percent of our annual funding comes from Federal appropriations, 40 percent from philanthropy and other sources.    The Federal commitment provides the critical foundation for all that we do and is helpful in attracting private support. We are grateful for the continued confidence of the administration, the Congress, and the American people.    I assure you that the confidence is more than justified. The state of the Smithsonian is strong. We are making great progress and will welcome our 13th Secretary on July 1, Dr. David Skorton, currently president of Cornell, who will push for even more progress.    Since January 1, I have been privileged to serve as Acting Secretary. Upon Dr. Skorton's arrival, I will return to my previous post as Under Secretary for Finance and Administration and Chief Financial Officer.    I will do so firmly convinced that the Smithsonian is more efficient and entrepreneurial than ever. It is also more effective in offering close-up authentic experiences of what it means to be an American.    For example, on May 8, I stood atop our American History Museum to witness the World War II flyover celebrating Victory in Europe Day. I am sure many of you saw the historic planes flying over the National Mall.    Our National Air and Space Museum director, General Jack Dailey, participated. The former Assistant Commandant of the Marine Corps was in the P-51 Mustang in the formation that executed the missing man maneuver.    The next day some of the participating planes were on display at our Air and Space Museum's Steven F. Udvar-Hazy Center for all to see. The Center also houses, among many treasures, the Space Shuttle Discovery, which flew over the National Mall 3 years ago.    Online, we offer a three-dimensional scan of the Wright Flyer that any teacher, student, or lifetime learner can download free of charge.    As I looked west that day, I saw our National Museum of African American History and Culture rising out of the ground. Museum curators have collected more than 33,000 artifacts, including the Spirit of Tuskegee airplane. The museum is targeted to open in the fall of 2016.    We continue to implement our 2010 strategic plan that focuses on our four grand challenges. We have an ambitious agenda. The first phase of the renovated west wing of our American History Museum reopens on July 1. The Smithsonian American Art Museum's Renwick Gallery reopens on the November 13 after significant revitalization.    We can offer so much to so many people because the Smithsonian is the largest museum and research complex in the world with passionate professionals and volunteers devoted to their work.    We have 19 museums and galleries, 20 libraries, 9 research centers, the National Zoo, and 201 affiliate museums in 45 states, Puerto Rico, and Panama. We are open 364 days a year and admission is free. We operate in more than 130 countries.    If you can't come to us, we are coming to you through digital technology. Our more than 200 Web sites attract 100 million unique visitors.    We have 6.6 million followers on Facebook and Twitter alone. Last year our museums and galleries had almost 27 million visits and another 4.5 million people visited our traveling exhibits in all 50 States.    Our collections total 138 million objects, including 127 million scientific specimens, 340,000 works of art, 2 million library volumes, more than 2,000 live animals, and much more. Some of those treasures you see on the table in front of you.    We protect and present some of the Nation's greatest treasures, everything from the Star-Spangled Banner to the Hope Diamond, the Landsdowne portrait of George Washington to the skeleton of T-Rex, Edison's light bulb to Nat Turner's Bible. We take stewardship of these treasures very seriously, as reported to this Committee 2 years ago.    Since that time, we have made many improvements and completed an in-depth study of collection space needs that will inform our long-term capital plan.    Our 500 scientists are making important discoveries, especially regarding biodiversity issues through our ForestGEO, or Global Earth Observatories, network. It is a worldwide partnership monitoring the health of 6 million trees in 24 countries.    Our new Tennenbaum Marine Observatories initiative, or MarineGEO, seeks to replicate that success and assess the health of coastal areas and the oceans.    We offer American, Asian, and African art. We deliver educational materials to students and teachers in all 50 States. More than 2,000 learning resources, all tied to State standards, are available online for free.    For 30 years our Smithsonian Science Education Center has been improving K through 12 education in our Nation's schools through its innovative STEM program.    We do have concerns about the age and upkeep of our 12 million square feet of facilities, particularly at our Air and Space Museum, our zoo, our Freer Gallery of Art, our Arts and Industries Building, The Castle, and other sites. We will need your continued support in those areas to ensure the vitality of these spaces, many of which are historic.    Our 6,400 dedicated employees and 5,500 generous volunteers are creative, resourceful, and dedicated to our mission. That is why for the fifth year in a row the Smithsonian was ranked as one of the best places to work in the Federal Government. All of us are honored to be part of this great American Institution.    As we face both exciting new opportunities and imposing challenges, we will carefully steward the critically important resources provided by the Federal Government.    Again, I thank you for this opportunity, and I look forward to your questions.</t>
   </si>
   <si>
@@ -97,6 +109,12 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Madam Chair.    And thank you for your service in such an important role. I have to say, last night, I hope everyone got to go to the Congressional Night at the National Portrait Gallery. It was an incredible location and very well done. So thanks to all that were involved in that.    Now, there is always concern on the upkeep of buildings and making sure that we don't defer maintenance. That happens sometimes just because the money is not there.    And I know we have a new museum that has been talked about that will open next year, a very exciting time. There are others that are being discussed.    But there is also a concern that, as we go forward and we build new museums, that we have the ability to maintain them and do the upkeep and maintenance. So this is going to be a major lift.    But, as far as families, the Air and Space Museum is one that everyone likes to go to. And it is very special because there is a plane there from my congressional district, from Meridian, Mississippi, the Key brothers' airplane called the ``Ole Miss,'' for which they set the record for longest time in the air, 27 days, back in 1935.    And their partner, mechanic, inventor, and friend, Mr. A.D. Hunter, invented the shutoff valve so you could safely transfer the fuel, which even today, with just some minor modifications, is still what is used today.    And you have got this single-engine plane that they stayed in for 27 days with a catwalk built around it because they had to climb out and service the engine during flight.    So during construction we are confident that will be fully displayed. But, anyway, that is another deal there. But it is true. Every exhibit has a great story. And so we are very thankful for that and those opportunities that are there.    How do you foresee going forward--and I know Chairman Miller discussed this. You are planning on keeping this open, at least in part, during those construction years. How many years will that Air and Space renovation take place?</t>
   </si>
   <si>
@@ -133,6 +151,12 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Chairman Miller. And I wish you well on your next endeavor, going to work for the Smithsonian, as you mentioned.    Please, sir, check her references.    Don't cut my mic, Judge Vargas.    First off, I want to say thank you, Mr. Acting Secretary. My twin boys, who are 14, going into the ninth grade, were part of a large high school group that was out just last week and enjoyed many of your facilities. Some of the feedback was that, obviously, besides hanging out with me, going to the Smithsonian was actually one of their favorite activities.    And it is something that we see many folks and families go through every day here. It is what you do on a regular basis. I think this Committee--hopefully, today you understand we truly appreciate what you do and what the many men and women who work at your facilities do on a regular basis to show what our Nation is all about. So thank you for that.    Education was a key point of your opening testimony. And I noticed you mentioned some of the STEM programs, that the Smithsonian works with school districts throughout this Nation, especially K through 12 education.    Can you actually go into a little further what you do at the Smithsonian to ensure that our students who may not be able to make it out here to Washington, D.C., or to other facilities in the Nation--how do they have access to your facilities? And how do your STEM programs work? And, also, how do teachers who may not be involved with them know how to contact you to get involved?</t>
   </si>
   <si>
@@ -161,6 +185,12 @@
   </si>
   <si>
     <t>412670</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Ms. Chairman and Mr. Catcher.    I am fascinated by the Smithsonian over the years, something that predates even our Civil War by nearly 15 years.    I believe you have been there about 5 years. Is that correct?</t>
@@ -563,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,1229 +623,1431 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s"/>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>57</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95907.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95907.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412522</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Vargas</t>
@@ -593,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +607,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,1428 +632,1528 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
         <v>32</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
